--- a/Ravevenge impossible.xlsx
+++ b/Ravevenge impossible.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschoi\Saved Games\Rift of the NecroDancer\Rift of the NecroDancer Demo 2\builds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F6BCBF-D1F5-4DB0-A8DB-8295ADCD4D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44703C7C-2EA8-4487-B181-6EA7587FD4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{C40B2B97-3DF4-4D2A-BF7A-5474FCD1EC6E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C40B2B97-3DF4-4D2A-BF7A-5474FCD1EC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="L-Perfect" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +89,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -108,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A57D80-74F4-4205-A2A5-CD3DF3204A22}">
   <dimension ref="A1:G1698"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +482,31 @@
         <v>161</v>
       </c>
       <c r="E2">
-        <v>394</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>416</v>
+      </c>
+      <c r="E3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>611</v>
+      </c>
+      <c r="E4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>721</v>
+      </c>
+      <c r="E5">
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -1147,7 +1177,7 @@
       <c r="A186">
         <v>1</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -6788,7 +6818,7 @@
       <c r="A716">
         <v>1</v>
       </c>
-      <c r="B716" s="4">
+      <c r="B716" s="5">
         <f t="shared" si="16"/>
         <v>36</v>
       </c>
@@ -8509,6 +8539,9 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
+      <c r="C863">
+        <v>35</v>
+      </c>
       <c r="D863">
         <f t="shared" si="20"/>
         <v>36</v>
@@ -12005,7 +12038,7 @@
       <c r="A1175">
         <v>1</v>
       </c>
-      <c r="B1175">
+      <c r="B1175" s="4">
         <f t="shared" si="31"/>
         <v>35</v>
       </c>
@@ -13682,7 +13715,7 @@
       <c r="A1322">
         <v>1</v>
       </c>
-      <c r="B1322">
+      <c r="B1322" s="4">
         <f t="shared" si="36"/>
         <v>31</v>
       </c>
@@ -14170,7 +14203,7 @@
       </c>
       <c r="G1364">
         <f>MAX(F1364:F1408)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1365" spans="1:7" x14ac:dyDescent="0.35">
@@ -14526,7 +14559,7 @@
       </c>
       <c r="F1396">
         <f t="shared" si="39"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1397" spans="1:6" x14ac:dyDescent="0.35">
@@ -15018,7 +15051,7 @@
       </c>
       <c r="D1439">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.35">
@@ -15514,7 +15547,7 @@
     <row r="1483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1483">
         <f t="shared" si="43"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1483">
         <f t="shared" si="42"/>
@@ -15588,7 +15621,7 @@
       <c r="A1490">
         <v>1</v>
       </c>
-      <c r="B1490">
+      <c r="B1490" s="4">
         <f t="shared" si="43"/>
         <v>29</v>
       </c>
@@ -16018,6 +16051,9 @@
       </c>
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1527">
+        <v>1</v>
+      </c>
       <c r="B1527">
         <f t="shared" si="43"/>
         <v>21</v>
@@ -16028,16 +16064,13 @@
       </c>
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1528">
-        <v>1</v>
-      </c>
       <c r="B1528">
         <f t="shared" si="43"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1528">
         <f t="shared" si="42"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.35">
@@ -16835,7 +16868,7 @@
         <v>12</v>
       </c>
       <c r="D1601">
-        <f t="shared" ref="D1601:D1616" si="46">SUM(A1601:A1689)</f>
+        <f t="shared" ref="D1601:D1614" si="46">SUM(A1601:A1689)</f>
         <v>31</v>
       </c>
     </row>
@@ -17347,8 +17380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E38A04-FD54-4C6C-B5ED-3B0459A76451}">
   <dimension ref="A1:G1698"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1440" workbookViewId="0">
-      <selection activeCell="D1456" sqref="D1456"/>
+    <sheetView topLeftCell="A1211" workbookViewId="0">
+      <selection activeCell="D1175" sqref="D1175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23628,7 +23661,7 @@
         <v>35</v>
       </c>
       <c r="D711">
-        <f t="shared" ref="D711:D761" si="17">SUM(A711:A800)</f>
+        <f t="shared" ref="D711:D760" si="17">SUM(A711:A800)</f>
         <v>70</v>
       </c>
     </row>

--- a/Ravevenge impossible.xlsx
+++ b/Ravevenge impossible.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschoi\Saved Games\Rift of the NecroDancer\Rift of the NecroDancer Demo 2\builds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44703C7C-2EA8-4487-B181-6EA7587FD4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8092B31E-60D7-45CD-9DF3-D3BF9053C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C40B2B97-3DF4-4D2A-BF7A-5474FCD1EC6E}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:G1698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +498,7 @@
         <v>611</v>
       </c>
       <c r="E4">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
